--- a/Sharpe das Estratégias/s2F.xlsx
+++ b/Sharpe das Estratégias/s2F.xlsx
@@ -1,21 +1,236 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takes\Documents\Insper\Data\Projeto Fin\GitHub\Data_Fin_2021.1\Sharpe das Estratégias\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D8A1CB-C79C-4AC1-8C1A-E8BB74D18843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+  <si>
+    <t>PETR4 BS Equity</t>
+  </si>
+  <si>
+    <t>VALE3 BS Equity</t>
+  </si>
+  <si>
+    <t>BBDC4 BS Equity</t>
+  </si>
+  <si>
+    <t>ITUB4 BS Equity</t>
+  </si>
+  <si>
+    <t>MGLU3 BS Equity</t>
+  </si>
+  <si>
+    <t>B3SA3 BS Equity</t>
+  </si>
+  <si>
+    <t>VVAR3 BS Equity</t>
+  </si>
+  <si>
+    <t>JBSS3 BS Equity</t>
+  </si>
+  <si>
+    <t>ABEV3 BS Equity</t>
+  </si>
+  <si>
+    <t>^BVSP</t>
+  </si>
+  <si>
+    <t>abev3</t>
+  </si>
+  <si>
+    <t>ações</t>
+  </si>
+  <si>
+    <t>alimentos</t>
+  </si>
+  <si>
+    <t>ambev</t>
+  </si>
+  <si>
+    <t>b3</t>
+  </si>
+  <si>
+    <t>bacen</t>
+  </si>
+  <si>
+    <t>banco</t>
+  </si>
+  <si>
+    <t>bbdc4</t>
+  </si>
+  <si>
+    <t>bitcoin</t>
+  </si>
+  <si>
+    <t>bolsa</t>
+  </si>
+  <si>
+    <t>bradesco</t>
+  </si>
+  <si>
+    <t>bvsp</t>
+  </si>
+  <si>
+    <t>cerveja</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>cor</t>
+  </si>
+  <si>
+    <t>corretora</t>
+  </si>
+  <si>
+    <t>credito</t>
+  </si>
+  <si>
+    <t>crise</t>
+  </si>
+  <si>
+    <t>derivativos</t>
+  </si>
+  <si>
+    <t>desemprego</t>
+  </si>
+  <si>
+    <t>dinheiro</t>
+  </si>
+  <si>
+    <t>divida</t>
+  </si>
+  <si>
+    <t>dividendos</t>
+  </si>
+  <si>
+    <t>dolar</t>
+  </si>
+  <si>
+    <t>economia</t>
+  </si>
+  <si>
+    <t>empresa</t>
+  </si>
+  <si>
+    <t>estagio</t>
+  </si>
+  <si>
+    <t>ferro</t>
+  </si>
+  <si>
+    <t>financas</t>
+  </si>
+  <si>
+    <t>fundos</t>
+  </si>
+  <si>
+    <t>gado</t>
+  </si>
+  <si>
+    <t>gasolina</t>
+  </si>
+  <si>
+    <t>ibovespa</t>
+  </si>
+  <si>
+    <t>inflacao</t>
+  </si>
+  <si>
+    <t>investimento</t>
+  </si>
+  <si>
+    <t>investir</t>
+  </si>
+  <si>
+    <t>itau</t>
+  </si>
+  <si>
+    <t>itub4</t>
+  </si>
+  <si>
+    <t>jbs</t>
+  </si>
+  <si>
+    <t>jbss3</t>
+  </si>
+  <si>
+    <t>magazine</t>
+  </si>
+  <si>
+    <t>mercado</t>
+  </si>
+  <si>
+    <t>mglu3</t>
+  </si>
+  <si>
+    <t>mineraca</t>
+  </si>
+  <si>
+    <t>petr4</t>
+  </si>
+  <si>
+    <t>petrobras</t>
+  </si>
+  <si>
+    <t>petroleo</t>
+  </si>
+  <si>
+    <t>politica</t>
+  </si>
+  <si>
+    <t>portifolio</t>
+  </si>
+  <si>
+    <t>renda</t>
+  </si>
+  <si>
+    <t>restaurante</t>
+  </si>
+  <si>
+    <t>selic</t>
+  </si>
+  <si>
+    <t>titulos</t>
+  </si>
+  <si>
+    <t>vale</t>
+  </si>
+  <si>
+    <t>vale3</t>
+  </si>
+  <si>
+    <t>viajar</t>
+  </si>
+  <si>
+    <t>vvar3</t>
+  </si>
+  <si>
+    <t>xp</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -24,12 +239,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -40,7 +253,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -49,17 +262,30 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -67,10 +293,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -78,6 +307,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -124,7 +361,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -156,9 +393,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -190,6 +445,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -365,404 +638,406 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:BG1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:59">
-      <c r="B1" s="1">
+    <row r="1" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="1">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="1">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:59">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
       <c r="B2">
-        <v>0.647279551457874</v>
+        <v>0.64727955145787397</v>
       </c>
       <c r="C2">
-        <v>0.8463495304880301</v>
+        <v>0.84634953048803008</v>
       </c>
       <c r="D2">
-        <v>0.774209819557204</v>
+        <v>0.77420981955720403</v>
       </c>
       <c r="E2">
-        <v>0.8337741788148887</v>
+        <v>0.83377417881488869</v>
       </c>
       <c r="F2">
-        <v>0.9098658719660513</v>
+        <v>0.90986587196605129</v>
       </c>
       <c r="G2">
-        <v>0.7512929389713671</v>
+        <v>0.75129293897136706</v>
       </c>
       <c r="H2">
-        <v>0.5792331576727702</v>
+        <v>0.57923315767277017</v>
       </c>
       <c r="I2">
-        <v>0.8134551186653496</v>
+        <v>0.81345511866534959</v>
       </c>
       <c r="J2">
-        <v>0.8296106917145349</v>
+        <v>0.82961069171453494</v>
       </c>
       <c r="K2">
-        <v>0.7826450297529232</v>
+        <v>0.78264502975292316</v>
       </c>
       <c r="L2">
-        <v>0.7109374365214122</v>
+        <v>0.71093743652141217</v>
       </c>
       <c r="M2">
-        <v>0.8534489572990411</v>
+        <v>0.85344895729904113</v>
       </c>
       <c r="N2">
-        <v>0.8240825217222433</v>
+        <v>0.82408252172224328</v>
       </c>
       <c r="O2">
-        <v>0.7461686439448287</v>
+        <v>0.74616864394482874</v>
       </c>
       <c r="P2">
-        <v>0.5550432987611482</v>
+        <v>0.55504329876114822</v>
       </c>
       <c r="Q2">
-        <v>0.8224507360677847</v>
+        <v>0.82245073606778474</v>
       </c>
       <c r="R2">
-        <v>0.727279560175801</v>
+        <v>0.72727956017580098</v>
       </c>
       <c r="S2">
-        <v>0.4597647058643978</v>
+        <v>0.45976470586439783</v>
       </c>
       <c r="T2">
-        <v>0.2623212266834669</v>
+        <v>0.26232122668346691</v>
       </c>
       <c r="U2">
-        <v>0.3694327549959959</v>
+        <v>0.36943275499599593</v>
       </c>
       <c r="V2">
-        <v>0.5819373623088214</v>
+        <v>0.58193736230882143</v>
       </c>
       <c r="W2">
         <v>1.014581162400487</v>
       </c>
       <c r="X2">
-        <v>0.5971694800725957</v>
+        <v>0.59716948007259574</v>
       </c>
       <c r="Y2">
-        <v>0.768582042026991</v>
+        <v>0.76858204202699099</v>
       </c>
       <c r="Z2">
-        <v>0.548735944495538</v>
+        <v>0.54873594449553798</v>
       </c>
       <c r="AA2">
-        <v>0.9305586042237762</v>
+        <v>0.93055860422377623</v>
       </c>
       <c r="AB2">
-        <v>0.9581069434512426</v>
+        <v>0.95810694345124259</v>
       </c>
       <c r="AC2">
-        <v>0.5081163885374662</v>
+        <v>0.50811638853746621</v>
       </c>
       <c r="AD2">
-        <v>0.6143796388624491</v>
+        <v>0.61437963886244906</v>
       </c>
       <c r="AE2">
-        <v>0.8567108794581988</v>
+        <v>0.85671087945819879</v>
       </c>
       <c r="AF2">
-        <v>0.2567249054166694</v>
+        <v>0.25672490541666942</v>
       </c>
       <c r="AG2">
-        <v>0.70600144804402</v>
+        <v>0.70600144804401999</v>
       </c>
       <c r="AH2">
-        <v>0.7189592192296304</v>
+        <v>0.71895921922963035</v>
       </c>
       <c r="AI2">
-        <v>0.9226270237583749</v>
+        <v>0.92262702375837491</v>
       </c>
       <c r="AJ2">
-        <v>0.7798312649550379</v>
+        <v>0.77983126495503785</v>
       </c>
       <c r="AK2">
-        <v>0.6980020646277476</v>
+        <v>0.69800206462774761</v>
       </c>
       <c r="AL2">
-        <v>0.7882755210201904</v>
+        <v>0.78827552102019038</v>
       </c>
       <c r="AM2">
-        <v>0.7695326961498216</v>
+        <v>0.76953269614982156</v>
       </c>
       <c r="AN2">
-        <v>0.9591654170309802</v>
+        <v>0.95916541703098024</v>
       </c>
       <c r="AO2">
         <v>0.7831608866890577</v>
       </c>
       <c r="AP2">
-        <v>0.8078524071066605</v>
+        <v>0.80785240710666051</v>
       </c>
       <c r="AQ2">
-        <v>0.534532144959675</v>
+        <v>0.53453214495967505</v>
       </c>
       <c r="AR2">
-        <v>0.5359645254780742</v>
+        <v>0.53596452547807416</v>
       </c>
       <c r="AS2">
-        <v>1.044316295098057</v>
+        <v>1.0443162950980569</v>
       </c>
       <c r="AT2">
-        <v>0.7796896998749298</v>
+        <v>0.77968969987492975</v>
       </c>
       <c r="AU2">
-        <v>0.8452011690082789</v>
+        <v>0.84520116900827891</v>
       </c>
       <c r="AV2">
-        <v>0.7043024337259352</v>
+        <v>0.70430243372593515</v>
       </c>
       <c r="AW2">
-        <v>0.7476994637029954</v>
+        <v>0.74769946370299545</v>
       </c>
       <c r="AX2">
-        <v>0.4965531921639555</v>
+        <v>0.49655319216395549</v>
       </c>
       <c r="AY2">
-        <v>0.7635292768799967</v>
+        <v>0.76352927687999672</v>
       </c>
       <c r="AZ2">
-        <v>1.046210384585384</v>
+        <v>1.0462103845853841</v>
       </c>
       <c r="BA2">
-        <v>0.9731197298373674</v>
+        <v>0.97311972983736739</v>
       </c>
       <c r="BB2">
-        <v>0.8036219394741457</v>
+        <v>0.80362193947414573</v>
       </c>
       <c r="BC2">
-        <v>0.7018416723352962</v>
+        <v>0.70184167233529615</v>
       </c>
       <c r="BD2">
-        <v>0.8173211877787918</v>
+        <v>0.81732118777879181</v>
       </c>
       <c r="BE2">
-        <v>0.8648511102725536</v>
+        <v>0.86485111027255357</v>
       </c>
       <c r="BF2">
-        <v>0.7374965383070413</v>
+        <v>0.73749653830704132</v>
       </c>
       <c r="BG2">
-        <v>0.7437891538950405</v>
+        <v>0.74378915389504052</v>
       </c>
     </row>
-    <row r="3" spans="1:59">
-      <c r="A3" s="1">
+    <row r="3" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>1.024551846557767</v>
       </c>
       <c r="C3">
-        <v>1.152363047762014</v>
+        <v>1.1523630477620139</v>
       </c>
       <c r="D3">
-        <v>1.199262454810463</v>
+        <v>1.1992624548104629</v>
       </c>
       <c r="E3">
-        <v>1.003866322680098</v>
+        <v>1.0038663226800979</v>
       </c>
       <c r="F3">
-        <v>1.111338250960704</v>
+        <v>1.1113382509607039</v>
       </c>
       <c r="G3">
-        <v>0.9921014721477895</v>
+        <v>0.99210147214778954</v>
       </c>
       <c r="H3">
         <v>1.014834900549231</v>
       </c>
       <c r="I3">
-        <v>1.101998074141579</v>
+        <v>1.1019980741415789</v>
       </c>
       <c r="J3">
-        <v>1.303675996733278</v>
+        <v>1.3036759967332781</v>
       </c>
       <c r="K3">
-        <v>1.186624748821273</v>
+        <v>1.1866247488212729</v>
       </c>
       <c r="L3">
-        <v>1.163772187783877</v>
+        <v>1.1637721877838769</v>
       </c>
       <c r="M3">
         <v>1.079260884433338</v>
@@ -771,37 +1046,37 @@
         <v>1.360045273724936</v>
       </c>
       <c r="O3">
-        <v>1.227415696556735</v>
+        <v>1.2274156965567351</v>
       </c>
       <c r="P3">
-        <v>1.018172775226245</v>
+        <v>1.0181727752262451</v>
       </c>
       <c r="Q3">
         <v>1.128652240638838</v>
       </c>
       <c r="R3">
-        <v>1.014869148405292</v>
+        <v>1.0148691484052921</v>
       </c>
       <c r="S3">
-        <v>0.9436247835170258</v>
+        <v>0.94362478351702583</v>
       </c>
       <c r="T3">
-        <v>0.9700476402303946</v>
+        <v>0.97004764023039458</v>
       </c>
       <c r="U3">
-        <v>0.9029879814167424</v>
+        <v>0.90298798141674241</v>
       </c>
       <c r="V3">
-        <v>1.050433175984156</v>
+        <v>1.0504331759841561</v>
       </c>
       <c r="W3">
-        <v>1.14556113256976</v>
+        <v>1.1455611325697601</v>
       </c>
       <c r="X3">
-        <v>1.063260766652876</v>
+        <v>1.0632607666528759</v>
       </c>
       <c r="Y3">
-        <v>0.9714173081185506</v>
+        <v>0.97141730811855065</v>
       </c>
       <c r="Z3">
         <v>0.9684197802107759</v>
@@ -810,7 +1085,7 @@
         <v>1.186623820077761</v>
       </c>
       <c r="AB3">
-        <v>1.181683883610941</v>
+        <v>1.1816838836109409</v>
       </c>
       <c r="AC3">
         <v>1.262854293251003</v>
@@ -822,7 +1097,7 @@
         <v>1.132020507744975</v>
       </c>
       <c r="AF3">
-        <v>0.944746223000451</v>
+        <v>0.94474622300045097</v>
       </c>
       <c r="AG3">
         <v>1.1527589143324</v>
@@ -831,10 +1106,10 @@
         <v>1.066732662813249</v>
       </c>
       <c r="AI3">
-        <v>1.266390388075103</v>
+        <v>1.2663903880751031</v>
       </c>
       <c r="AJ3">
-        <v>1.311428714657536</v>
+        <v>1.3114287146575361</v>
       </c>
       <c r="AK3">
         <v>1.109564158296273</v>
@@ -843,22 +1118,22 @@
         <v>1.226154757439379</v>
       </c>
       <c r="AM3">
-        <v>1.098196583333917</v>
+        <v>1.0981965833339169</v>
       </c>
       <c r="AN3">
-        <v>1.229164989581304</v>
+        <v>1.2291649895813039</v>
       </c>
       <c r="AO3">
         <v>1.287953322652196</v>
       </c>
       <c r="AP3">
-        <v>1.240368297095234</v>
+        <v>1.2403682970952341</v>
       </c>
       <c r="AQ3">
-        <v>1.086184343637112</v>
+        <v>1.0861843436371119</v>
       </c>
       <c r="AR3">
-        <v>0.9462304742700735</v>
+        <v>0.94623047427007345</v>
       </c>
       <c r="AS3">
         <v>1.266709031145526</v>
@@ -867,19 +1142,19 @@
         <v>0.999545033286379</v>
       </c>
       <c r="AU3">
-        <v>0.9133293224299815</v>
+        <v>0.91332932242998155</v>
       </c>
       <c r="AV3">
-        <v>0.9870750828253426</v>
+        <v>0.98707508282534262</v>
       </c>
       <c r="AW3">
-        <v>1.16199656672544</v>
+        <v>1.1619965667254399</v>
       </c>
       <c r="AX3">
         <v>1.062458529841023</v>
       </c>
       <c r="AY3">
-        <v>1.067776625860806</v>
+        <v>1.0677766258608059</v>
       </c>
       <c r="AZ3">
         <v>1.21083422684765</v>
@@ -903,30 +1178,30 @@
         <v>1.084144043756724</v>
       </c>
       <c r="BG3">
-        <v>1.088628312235718</v>
+        <v>1.0886283122357181</v>
       </c>
     </row>
-    <row r="4" spans="1:59">
-      <c r="A4" s="1">
+    <row r="4" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.338823637261233</v>
+        <v>0.33882363726123299</v>
       </c>
       <c r="C4">
-        <v>0.2806286436711419</v>
+        <v>0.28062864367114188</v>
       </c>
       <c r="D4">
-        <v>0.7487442470033018</v>
+        <v>0.74874424700330178</v>
       </c>
       <c r="E4">
         <v>0.6926284891404606</v>
       </c>
       <c r="F4">
-        <v>0.3065930049435968</v>
+        <v>0.30659300494359681</v>
       </c>
       <c r="G4">
-        <v>0.7221368496427557</v>
+        <v>0.72213684964275571</v>
       </c>
       <c r="H4">
         <v>0.2313353287925223</v>
@@ -935,43 +1210,43 @@
         <v>0.2516006063296245</v>
       </c>
       <c r="J4">
-        <v>0.2948151657485908</v>
+        <v>0.29481516574859079</v>
       </c>
       <c r="K4">
-        <v>0.6238021068755655</v>
+        <v>0.62380210687556548</v>
       </c>
       <c r="L4">
-        <v>0.6384422057043332</v>
+        <v>0.63844220570433319</v>
       </c>
       <c r="M4">
         <v>0.3521930299079335</v>
       </c>
       <c r="N4">
-        <v>0.276191607256528</v>
+        <v>0.27619160725652803</v>
       </c>
       <c r="O4">
-        <v>0.4290012402919327</v>
+        <v>0.42900124029193271</v>
       </c>
       <c r="P4">
-        <v>0.07904008762189248</v>
+        <v>7.9040087621892477E-2</v>
       </c>
       <c r="Q4">
-        <v>0.2827803681944133</v>
+        <v>0.28278036819441332</v>
       </c>
       <c r="R4">
-        <v>0.5843142107877267</v>
+        <v>0.58431421078772672</v>
       </c>
       <c r="S4">
         <v>0.2849606971626743</v>
       </c>
       <c r="T4">
-        <v>-0.3486654457928248</v>
+        <v>-0.34866544579282482</v>
       </c>
       <c r="U4">
-        <v>0.3518855769167327</v>
+        <v>0.35188557691673272</v>
       </c>
       <c r="V4">
-        <v>0.3005299809438405</v>
+        <v>0.30052998094384048</v>
       </c>
       <c r="W4">
         <v>0.3760074139463036</v>
@@ -983,16 +1258,16 @@
         <v>0.2327872556457902</v>
       </c>
       <c r="Z4">
-        <v>0.2834221135856473</v>
+        <v>0.28342211358564728</v>
       </c>
       <c r="AA4">
-        <v>0.5639251104889595</v>
+        <v>0.56392511048895955</v>
       </c>
       <c r="AB4">
         <v>0.7056861371333828</v>
       </c>
       <c r="AC4">
-        <v>0.09306801749192585</v>
+        <v>9.306801749192585E-2</v>
       </c>
       <c r="AD4">
         <v>-0.1153168184807028</v>
@@ -1001,168 +1276,168 @@
         <v>0.5796403447899614</v>
       </c>
       <c r="AF4">
-        <v>0.3636297667101778</v>
+        <v>0.36362976671017783</v>
       </c>
       <c r="AG4">
         <v>0.2806485183487944</v>
       </c>
       <c r="AH4">
-        <v>0.2591282677138073</v>
+        <v>0.25912826771380731</v>
       </c>
       <c r="AI4">
-        <v>0.4446218265569535</v>
+        <v>0.44462182655695348</v>
       </c>
       <c r="AJ4">
-        <v>0.1341431059142316</v>
+        <v>0.13414310591423159</v>
       </c>
       <c r="AK4">
-        <v>0.408481687184675</v>
+        <v>0.40848168718467498</v>
       </c>
       <c r="AL4">
-        <v>0.6613441629780729</v>
+        <v>0.66134416297807286</v>
       </c>
       <c r="AM4">
-        <v>0.5741471529422957</v>
+        <v>0.57414715294229568</v>
       </c>
       <c r="AN4">
-        <v>0.5494914888328398</v>
+        <v>0.54949148883283983</v>
       </c>
       <c r="AO4">
-        <v>0.5528602519951124</v>
+        <v>0.55286025199511235</v>
       </c>
       <c r="AP4">
-        <v>0.3908433443897837</v>
+        <v>0.39084334438978369</v>
       </c>
       <c r="AQ4">
-        <v>0.5159147011526576</v>
+        <v>0.51591470115265758</v>
       </c>
       <c r="AR4">
-        <v>0.3121430819284561</v>
+        <v>0.31214308192845608</v>
       </c>
       <c r="AS4">
-        <v>0.7961484931072378</v>
+        <v>0.79614849310723779</v>
       </c>
       <c r="AT4">
-        <v>0.1645819199679056</v>
+        <v>0.16458191996790561</v>
       </c>
       <c r="AU4">
-        <v>0.7121496284106298</v>
+        <v>0.71214962841062979</v>
       </c>
       <c r="AV4">
-        <v>0.5674472359396242</v>
+        <v>0.56744723593962421</v>
       </c>
       <c r="AW4">
-        <v>0.3919171884371174</v>
+        <v>0.39191718843711743</v>
       </c>
       <c r="AX4">
-        <v>0.4485643507394486</v>
+        <v>0.44856435073944861</v>
       </c>
       <c r="AY4">
-        <v>0.3767504592038154</v>
+        <v>0.37675045920381539</v>
       </c>
       <c r="AZ4">
-        <v>0.3575974169642595</v>
+        <v>0.35759741696425951</v>
       </c>
       <c r="BA4">
         <v>0.8039583035670369</v>
       </c>
       <c r="BB4">
-        <v>0.2514477047923808</v>
+        <v>0.25144770479238082</v>
       </c>
       <c r="BC4">
-        <v>0.6256970333672499</v>
+        <v>0.62569703336724991</v>
       </c>
       <c r="BD4">
         <v>0.1820860305092408</v>
       </c>
       <c r="BE4">
-        <v>0.8203895284069221</v>
+        <v>0.82038952840692214</v>
       </c>
       <c r="BF4">
-        <v>0.6338238178002742</v>
+        <v>0.63382381780027419</v>
       </c>
       <c r="BG4">
-        <v>0.3741435943177465</v>
+        <v>0.37414359431774652</v>
       </c>
     </row>
-    <row r="5" spans="1:59">
-      <c r="A5" s="1">
+    <row r="5" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3767733270188752</v>
+        <v>0.37677332701887523</v>
       </c>
       <c r="C5">
-        <v>0.3159539529777847</v>
+        <v>0.31595395297778472</v>
       </c>
       <c r="D5">
-        <v>0.6059155370688543</v>
+        <v>0.60591553706885426</v>
       </c>
       <c r="E5">
-        <v>0.8560899149481926</v>
+        <v>0.85608991494819264</v>
       </c>
       <c r="F5">
-        <v>0.4068380797665087</v>
+        <v>0.40683807976650871</v>
       </c>
       <c r="G5">
-        <v>0.4165494699552859</v>
+        <v>0.41654946995528591</v>
       </c>
       <c r="H5">
         <v>0.3823995482590235</v>
       </c>
       <c r="I5">
-        <v>0.3326304877396506</v>
+        <v>0.33263048773965059</v>
       </c>
       <c r="J5">
-        <v>0.1799712850123714</v>
+        <v>0.17997128501237139</v>
       </c>
       <c r="K5">
-        <v>0.558728904336307</v>
+        <v>0.55872890433630695</v>
       </c>
       <c r="L5">
-        <v>0.5250657264875155</v>
+        <v>0.52506572648751548</v>
       </c>
       <c r="M5">
-        <v>0.3577084450819892</v>
+        <v>0.35770844508198918</v>
       </c>
       <c r="N5">
         <v>0.2405891805391952</v>
       </c>
       <c r="O5">
-        <v>0.6866823278204104</v>
+        <v>0.68668232782041039</v>
       </c>
       <c r="P5">
         <v>0.1067537071845456</v>
       </c>
       <c r="Q5">
-        <v>0.308806158048997</v>
+        <v>0.30880615804899703</v>
       </c>
       <c r="R5">
-        <v>0.7155503300726975</v>
+        <v>0.71555033007269753</v>
       </c>
       <c r="S5">
-        <v>0.2783417488347238</v>
+        <v>0.27834174883472379</v>
       </c>
       <c r="T5">
-        <v>-0.1501864714371469</v>
+        <v>-0.15018647143714689</v>
       </c>
       <c r="U5">
-        <v>0.3363989376617481</v>
+        <v>0.33639893766174811</v>
       </c>
       <c r="V5">
-        <v>0.3829187068360472</v>
+        <v>0.38291870683604717</v>
       </c>
       <c r="W5">
-        <v>0.2761573568395403</v>
+        <v>0.27615735683954029</v>
       </c>
       <c r="X5">
-        <v>0.3115424541327249</v>
+        <v>0.31154245413272491</v>
       </c>
       <c r="Y5">
-        <v>0.3197029795066071</v>
+        <v>0.31970297950660709</v>
       </c>
       <c r="Z5">
-        <v>0.3435109140844801</v>
+        <v>0.34351091408448009</v>
       </c>
       <c r="AA5">
         <v>0.6280581629088765</v>
@@ -1171,40 +1446,40 @@
         <v>0.6180958531756533</v>
       </c>
       <c r="AC5">
-        <v>-0.05968024222110897</v>
+        <v>-5.9680242221108973E-2</v>
       </c>
       <c r="AD5">
-        <v>0.04835196692041253</v>
+        <v>4.8351966920412527E-2</v>
       </c>
       <c r="AE5">
-        <v>0.5712745336661925</v>
+        <v>0.57127453366619252</v>
       </c>
       <c r="AF5">
         <v>0.1238307441011183</v>
       </c>
       <c r="AG5">
-        <v>0.2553713194596324</v>
+        <v>0.25537131945963237</v>
       </c>
       <c r="AH5">
-        <v>0.3244424969439528</v>
+        <v>0.32444249694395277</v>
       </c>
       <c r="AI5">
-        <v>0.4179252084166482</v>
+        <v>0.41792520841664821</v>
       </c>
       <c r="AJ5">
-        <v>0.04190918468331897</v>
+        <v>4.1909184683318973E-2</v>
       </c>
       <c r="AK5">
-        <v>0.4292441400183462</v>
+        <v>0.42924414001834621</v>
       </c>
       <c r="AL5">
         <v>0.5040282515410589</v>
       </c>
       <c r="AM5">
-        <v>0.5668818707215011</v>
+        <v>0.56688187072150109</v>
       </c>
       <c r="AN5">
-        <v>0.5352705911978126</v>
+        <v>0.53527059119781262</v>
       </c>
       <c r="AO5">
         <v>0.621769359298742</v>
@@ -1213,69 +1488,69 @@
         <v>0.5072628417924594</v>
       </c>
       <c r="AQ5">
-        <v>0.3248281599634835</v>
+        <v>0.32482815996348352</v>
       </c>
       <c r="AR5">
-        <v>0.3698861967737154</v>
+        <v>0.36988619677371543</v>
       </c>
       <c r="AS5">
-        <v>0.9808716527103106</v>
+        <v>0.98087165271031063</v>
       </c>
       <c r="AT5">
-        <v>0.286552878148937</v>
+        <v>0.28655287814893698</v>
       </c>
       <c r="AU5">
-        <v>0.7630104474885315</v>
+        <v>0.76301044748853153</v>
       </c>
       <c r="AV5">
-        <v>0.6664964988640926</v>
+        <v>0.66649649886409257</v>
       </c>
       <c r="AW5">
-        <v>0.248488377226622</v>
+        <v>0.24848837722662201</v>
       </c>
       <c r="AX5">
-        <v>0.4029838560163502</v>
+        <v>0.40298385601635017</v>
       </c>
       <c r="AY5">
-        <v>0.3868844543387562</v>
+        <v>0.38688445433875618</v>
       </c>
       <c r="AZ5">
-        <v>0.4378304554006178</v>
+        <v>0.43783045540061782</v>
       </c>
       <c r="BA5">
-        <v>0.7189151688799225</v>
+        <v>0.71891516887992246</v>
       </c>
       <c r="BB5">
         <v>0.3364092683296222</v>
       </c>
       <c r="BC5">
-        <v>0.4192876162237515</v>
+        <v>0.41928761622375149</v>
       </c>
       <c r="BD5">
-        <v>0.2831461590561065</v>
+        <v>0.28314615905610652</v>
       </c>
       <c r="BE5">
-        <v>0.6222363924757908</v>
+        <v>0.62223639247579077</v>
       </c>
       <c r="BF5">
-        <v>0.4897297953225955</v>
+        <v>0.48972979532259547</v>
       </c>
       <c r="BG5">
-        <v>0.5472199513726818</v>
+        <v>0.54721995137268176</v>
       </c>
     </row>
-    <row r="6" spans="1:59">
-      <c r="A6" s="1">
+    <row r="6" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.118281775310681</v>
+        <v>2.1182817753106811</v>
       </c>
       <c r="C6">
         <v>2.17913685617529</v>
       </c>
       <c r="D6">
-        <v>2.119036068238818</v>
+        <v>2.1190360682388181</v>
       </c>
       <c r="E6">
         <v>1.917707112338235</v>
@@ -1287,28 +1562,28 @@
         <v>2.181880883929733</v>
       </c>
       <c r="H6">
-        <v>2.050864879366596</v>
+        <v>2.0508648793665958</v>
       </c>
       <c r="I6">
-        <v>2.106140624125857</v>
+        <v>2.1061406241258571</v>
       </c>
       <c r="J6">
-        <v>2.022435892386879</v>
+        <v>2.0224358923868788</v>
       </c>
       <c r="K6">
-        <v>2.1691994238003</v>
+        <v>2.1691994238003001</v>
       </c>
       <c r="L6">
-        <v>1.979870558110152</v>
+        <v>1.9798705581101519</v>
       </c>
       <c r="M6">
-        <v>2.166859025290769</v>
+        <v>2.1668590252907691</v>
       </c>
       <c r="N6">
         <v>2.324576437590133</v>
       </c>
       <c r="O6">
-        <v>2.175448877038816</v>
+        <v>2.1754488770388161</v>
       </c>
       <c r="P6">
         <v>2.225672967898169</v>
@@ -1320,7 +1595,7 @@
         <v>1.994355295351329</v>
       </c>
       <c r="S6">
-        <v>2.001535713766559</v>
+        <v>2.0015357137665588</v>
       </c>
       <c r="T6">
         <v>1.917844884173344</v>
@@ -1329,94 +1604,94 @@
         <v>2.116443279415543</v>
       </c>
       <c r="V6">
-        <v>2.154684036151962</v>
+        <v>2.1546840361519619</v>
       </c>
       <c r="W6">
-        <v>2.077794000815853</v>
+        <v>2.0777940008158531</v>
       </c>
       <c r="X6">
-        <v>2.216380136491091</v>
+        <v>2.2163801364910909</v>
       </c>
       <c r="Y6">
-        <v>2.165866663817446</v>
+        <v>2.1658666638174462</v>
       </c>
       <c r="Z6">
-        <v>2.068869218381306</v>
+        <v>2.0688692183813062</v>
       </c>
       <c r="AA6">
-        <v>2.167800972627086</v>
+        <v>2.1678009726270862</v>
       </c>
       <c r="AB6">
         <v>2.187025630531573</v>
       </c>
       <c r="AC6">
-        <v>1.964736487054536</v>
+        <v>1.9647364870545361</v>
       </c>
       <c r="AD6">
-        <v>2.101722746896484</v>
+        <v>2.1017227468964839</v>
       </c>
       <c r="AE6">
-        <v>2.089857500728893</v>
+        <v>2.0898575007288929</v>
       </c>
       <c r="AF6">
-        <v>1.919876724154414</v>
+        <v>1.9198767241544139</v>
       </c>
       <c r="AG6">
-        <v>2.29020446625903</v>
+        <v>2.2902044662590302</v>
       </c>
       <c r="AH6">
         <v>2.138943606988196</v>
       </c>
       <c r="AI6">
-        <v>2.275014489436259</v>
+        <v>2.2750144894362592</v>
       </c>
       <c r="AJ6">
-        <v>2.077985624041437</v>
+        <v>2.0779856240414372</v>
       </c>
       <c r="AK6">
-        <v>2.018144796695842</v>
+        <v>2.0181447966958421</v>
       </c>
       <c r="AL6">
-        <v>2.038131894839866</v>
+        <v>2.0381318948398661</v>
       </c>
       <c r="AM6">
-        <v>2.105366973564777</v>
+        <v>2.1053669735647769</v>
       </c>
       <c r="AN6">
-        <v>2.055447837099246</v>
+        <v>2.0554478370992459</v>
       </c>
       <c r="AO6">
-        <v>2.051491912551079</v>
+        <v>2.0514919125510791</v>
       </c>
       <c r="AP6">
-        <v>2.202079311025663</v>
+        <v>2.2020793110256629</v>
       </c>
       <c r="AQ6">
-        <v>1.989564028650255</v>
+        <v>1.9895640286502549</v>
       </c>
       <c r="AR6">
-        <v>2.043208009317467</v>
+        <v>2.0432080093174672</v>
       </c>
       <c r="AS6">
-        <v>2.149587985491591</v>
+        <v>2.1495879854915909</v>
       </c>
       <c r="AT6">
         <v>2.032269332814856</v>
       </c>
       <c r="AU6">
-        <v>2.096372690882715</v>
+        <v>2.0963726908827152</v>
       </c>
       <c r="AV6">
-        <v>2.131952612500885</v>
+        <v>2.1319526125008852</v>
       </c>
       <c r="AW6">
-        <v>2.027059567869251</v>
+        <v>2.0270595678692511</v>
       </c>
       <c r="AX6">
-        <v>2.081027461510124</v>
+        <v>2.0810274615101241</v>
       </c>
       <c r="AY6">
-        <v>2.033411944966577</v>
+        <v>2.0334119449665771</v>
       </c>
       <c r="AZ6">
         <v>2.138127026704058</v>
@@ -1425,93 +1700,93 @@
         <v>2.203142803573614</v>
       </c>
       <c r="BB6">
-        <v>2.077017983088776</v>
+        <v>2.0770179830887758</v>
       </c>
       <c r="BC6">
         <v>2.193048102624171</v>
       </c>
       <c r="BD6">
-        <v>2.080010868375815</v>
+        <v>2.0800108683758149</v>
       </c>
       <c r="BE6">
-        <v>2.154684036151962</v>
+        <v>2.1546840361519619</v>
       </c>
       <c r="BF6">
         <v>2.178320484400845</v>
       </c>
       <c r="BG6">
-        <v>2.07461918875209</v>
+        <v>2.0746191887520902</v>
       </c>
     </row>
-    <row r="7" spans="1:59">
-      <c r="A7" s="1">
+    <row r="7" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9904463346989094</v>
+        <v>0.99044633469890941</v>
       </c>
       <c r="C7">
-        <v>1.079753840444963</v>
+        <v>1.0797538404449629</v>
       </c>
       <c r="D7">
-        <v>1.068649891562668</v>
+        <v>1.0686498915626681</v>
       </c>
       <c r="E7">
         <v>1.023641837858033</v>
       </c>
       <c r="F7">
-        <v>0.9782128297424693</v>
+        <v>0.97821282974246926</v>
       </c>
       <c r="G7">
-        <v>0.969549443006178</v>
+        <v>0.96954944300617796</v>
       </c>
       <c r="H7">
-        <v>1.048788581372028</v>
+        <v>1.0487885813720279</v>
       </c>
       <c r="I7">
-        <v>0.9848957208978197</v>
+        <v>0.98489572089781974</v>
       </c>
       <c r="J7">
-        <v>0.9439208371307951</v>
+        <v>0.94392083713079511</v>
       </c>
       <c r="K7">
-        <v>1.035500604487171</v>
+        <v>1.0355006044871711</v>
       </c>
       <c r="L7">
-        <v>0.9581438947172128</v>
+        <v>0.95814389471721284</v>
       </c>
       <c r="M7">
         <v>1.064025509479426</v>
       </c>
       <c r="N7">
-        <v>0.8916334961603047</v>
+        <v>0.89163349616030474</v>
       </c>
       <c r="O7">
-        <v>0.9851504599289008</v>
+        <v>0.98515045992890082</v>
       </c>
       <c r="P7">
-        <v>0.9401326593041334</v>
+        <v>0.94013265930413337</v>
       </c>
       <c r="Q7">
         <v>1.074195782770631</v>
       </c>
       <c r="R7">
-        <v>0.9836972801454112</v>
+        <v>0.98369728014541125</v>
       </c>
       <c r="S7">
-        <v>0.9709024675139586</v>
+        <v>0.97090246751395859</v>
       </c>
       <c r="T7">
         <v>0.943238881098176</v>
       </c>
       <c r="U7">
-        <v>1.010606603147593</v>
+        <v>1.0106066031475931</v>
       </c>
       <c r="V7">
-        <v>0.9636805829611017</v>
+        <v>0.96368058296110171</v>
       </c>
       <c r="W7">
-        <v>1.061151940112938</v>
+        <v>1.0611519401129379</v>
       </c>
       <c r="X7">
         <v>0.9090027354305914</v>
@@ -1523,34 +1798,34 @@
         <v>0.9885704400320825</v>
       </c>
       <c r="AA7">
-        <v>1.039132846394416</v>
+        <v>1.0391328463944161</v>
       </c>
       <c r="AB7">
-        <v>1.013828438022628</v>
+        <v>1.0138284380226279</v>
       </c>
       <c r="AC7">
-        <v>1.021344827457555</v>
+        <v>1.0213448274575549</v>
       </c>
       <c r="AD7">
-        <v>1.006353324526715</v>
+        <v>1.0063533245267151</v>
       </c>
       <c r="AE7">
-        <v>0.9172389407808255</v>
+        <v>0.91723894078082546</v>
       </c>
       <c r="AF7">
-        <v>0.9703625994302292</v>
+        <v>0.97036259943022918</v>
       </c>
       <c r="AG7">
-        <v>0.9905338735870159</v>
+        <v>0.99053387358701595</v>
       </c>
       <c r="AH7">
         <v>1.025328184921263</v>
       </c>
       <c r="AI7">
-        <v>1.097661991712558</v>
+        <v>1.0976619917125581</v>
       </c>
       <c r="AJ7">
-        <v>0.9793905423738469</v>
+        <v>0.97939054237384693</v>
       </c>
       <c r="AK7">
         <v>0.9655178077437554</v>
@@ -1559,7 +1834,7 @@
         <v>1.038753002308219</v>
       </c>
       <c r="AM7">
-        <v>0.9716394022795135</v>
+        <v>0.97163940227951351</v>
       </c>
       <c r="AN7">
         <v>1.054203253401065</v>
@@ -1568,162 +1843,162 @@
         <v>1.01834650407015</v>
       </c>
       <c r="AP7">
-        <v>0.9634143873368156</v>
+        <v>0.96341438733681561</v>
       </c>
       <c r="AQ7">
-        <v>0.9104730800874148</v>
+        <v>0.91047308008741479</v>
       </c>
       <c r="AR7">
-        <v>1.013530295651916</v>
+        <v>1.0135302956519161</v>
       </c>
       <c r="AS7">
-        <v>0.9342056070520178</v>
+        <v>0.93420560705201783</v>
       </c>
       <c r="AT7">
-        <v>0.9784332334284875</v>
+        <v>0.97843323342848754</v>
       </c>
       <c r="AU7">
         <v>1.005002300791731</v>
       </c>
       <c r="AV7">
-        <v>1.051305976531672</v>
+        <v>1.0513059765316719</v>
       </c>
       <c r="AW7">
-        <v>0.9889508198978317</v>
+        <v>0.98895081989783173</v>
       </c>
       <c r="AX7">
-        <v>0.9155261602814884</v>
+        <v>0.91552616028148837</v>
       </c>
       <c r="AY7">
-        <v>0.9966464405940426</v>
+        <v>0.99664644059404262</v>
       </c>
       <c r="AZ7">
-        <v>0.8950283339849623</v>
+        <v>0.89502833398496229</v>
       </c>
       <c r="BA7">
         <v>1.004309394874541</v>
       </c>
       <c r="BB7">
-        <v>1.045549447703796</v>
+        <v>1.0455494477037961</v>
       </c>
       <c r="BC7">
         <v>1.015201880607943</v>
       </c>
       <c r="BD7">
-        <v>0.9989934136761144</v>
+        <v>0.99899341367611438</v>
       </c>
       <c r="BE7">
-        <v>0.9635809049268915</v>
+        <v>0.96358090492689152</v>
       </c>
       <c r="BF7">
-        <v>0.9952733372690998</v>
+        <v>0.99527333726909983</v>
       </c>
       <c r="BG7">
         <v>0.9859286411320265</v>
       </c>
     </row>
-    <row r="8" spans="1:59">
-      <c r="A8" s="1">
+    <row r="8" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.710078208677173</v>
+        <v>0.71007820867717297</v>
       </c>
       <c r="C8">
-        <v>0.4971253356529416</v>
+        <v>0.49712533565294159</v>
       </c>
       <c r="D8">
         <v>1.06386490399352</v>
       </c>
       <c r="E8">
-        <v>1.015177554616835</v>
+        <v>1.0151775546168349</v>
       </c>
       <c r="F8">
-        <v>0.5978098772654936</v>
+        <v>0.59780987726549362</v>
       </c>
       <c r="G8">
-        <v>0.9342273028873996</v>
+        <v>0.93422730288739964</v>
       </c>
       <c r="H8">
-        <v>0.8515010737465799</v>
+        <v>0.85150107374657991</v>
       </c>
       <c r="I8">
-        <v>0.6217453245581815</v>
+        <v>0.62174532455818154</v>
       </c>
       <c r="J8">
-        <v>0.7584008690196262</v>
+        <v>0.75840086901962622</v>
       </c>
       <c r="K8">
         <v>0.8308259162526842</v>
       </c>
       <c r="L8">
-        <v>0.7611619503573355</v>
+        <v>0.76116195035733547</v>
       </c>
       <c r="M8">
-        <v>1.014844912333937</v>
+        <v>1.0148449123339369</v>
       </c>
       <c r="N8">
-        <v>0.5567415650982591</v>
+        <v>0.55674156509825912</v>
       </c>
       <c r="O8">
-        <v>0.596546042161783</v>
+        <v>0.59654604216178297</v>
       </c>
       <c r="P8">
-        <v>0.7257662658618754</v>
+        <v>0.72576626586187543</v>
       </c>
       <c r="Q8">
-        <v>0.6406230394841373</v>
+        <v>0.64062303948413735</v>
       </c>
       <c r="R8">
         <v>0.9199715857049825</v>
       </c>
       <c r="S8">
-        <v>0.6181140885143632</v>
+        <v>0.61811408851436322</v>
       </c>
       <c r="T8">
-        <v>0.3801752625879558</v>
+        <v>0.38017526258795581</v>
       </c>
       <c r="U8">
-        <v>0.5785637876630291</v>
+        <v>0.57856378766302907</v>
       </c>
       <c r="V8">
-        <v>0.4314265706589432</v>
+        <v>0.43142657065894319</v>
       </c>
       <c r="W8">
-        <v>0.6651638433185197</v>
+        <v>0.66516384331851974</v>
       </c>
       <c r="X8">
-        <v>0.4321681753051548</v>
+        <v>0.43216817530515478</v>
       </c>
       <c r="Y8">
-        <v>0.5297331401080803</v>
+        <v>0.52973314010808026</v>
       </c>
       <c r="Z8">
-        <v>0.6087491291501314</v>
+        <v>0.60874912915013135</v>
       </c>
       <c r="AA8">
-        <v>0.649867585232687</v>
+        <v>0.64986758523268695</v>
       </c>
       <c r="AB8">
-        <v>1.054644175720885</v>
+        <v>1.0546441757208851</v>
       </c>
       <c r="AC8">
-        <v>0.6284975002547243</v>
+        <v>0.62849750025472428</v>
       </c>
       <c r="AD8">
-        <v>0.699735691946097</v>
+        <v>0.69973569194609697</v>
       </c>
       <c r="AE8">
-        <v>1.063554856869591</v>
+        <v>1.0635548568695909</v>
       </c>
       <c r="AF8">
-        <v>0.3999170540144821</v>
+        <v>0.39991705401448208</v>
       </c>
       <c r="AG8">
-        <v>0.7158132106765225</v>
+        <v>0.71581321067652248</v>
       </c>
       <c r="AH8">
-        <v>0.5573822669141725</v>
+        <v>0.55738226691417248</v>
       </c>
       <c r="AI8">
         <v>1.006061169170797</v>
@@ -1732,123 +2007,123 @@
         <v>0.4579776807797018</v>
       </c>
       <c r="AK8">
-        <v>0.6312637919864886</v>
+        <v>0.63126379198648863</v>
       </c>
       <c r="AL8">
         <v>0.9761464368871996</v>
       </c>
       <c r="AM8">
-        <v>0.9802375763724339</v>
+        <v>0.98023757637243392</v>
       </c>
       <c r="AN8">
-        <v>0.9668127308267562</v>
+        <v>0.96681273082675623</v>
       </c>
       <c r="AO8">
-        <v>0.644064789200277</v>
+        <v>0.64406478920027699</v>
       </c>
       <c r="AP8">
-        <v>0.5708512462504933</v>
+        <v>0.57085124625049333</v>
       </c>
       <c r="AQ8">
-        <v>0.8049707808180646</v>
+        <v>0.80497078081806461</v>
       </c>
       <c r="AR8">
-        <v>0.4600787896299728</v>
+        <v>0.46007878962997278</v>
       </c>
       <c r="AS8">
-        <v>0.7379574527400179</v>
+        <v>0.73795745274001789</v>
       </c>
       <c r="AT8">
         <v>0.5558922938180938</v>
       </c>
       <c r="AU8">
-        <v>0.8947860162867308</v>
+        <v>0.89478601628673082</v>
       </c>
       <c r="AV8">
-        <v>0.586180178160351</v>
+        <v>0.58618017816035095</v>
       </c>
       <c r="AW8">
-        <v>0.808053191601006</v>
+        <v>0.80805319160100597</v>
       </c>
       <c r="AX8">
-        <v>0.8729420843204339</v>
+        <v>0.87294208432043385</v>
       </c>
       <c r="AY8">
         <v>0.8403956273633717</v>
       </c>
       <c r="AZ8">
-        <v>0.6263854991077155</v>
+        <v>0.62638549910771546</v>
       </c>
       <c r="BA8">
-        <v>0.9660271606096568</v>
+        <v>0.96602716060965677</v>
       </c>
       <c r="BB8">
-        <v>0.7229045547210665</v>
+        <v>0.72290455472106652</v>
       </c>
       <c r="BC8">
-        <v>0.6235338744105894</v>
+        <v>0.62353387441058938</v>
       </c>
       <c r="BD8">
-        <v>0.6021136463916638</v>
+        <v>0.60211364639166376</v>
       </c>
       <c r="BE8">
-        <v>0.6591179892537479</v>
+        <v>0.65911798925374787</v>
       </c>
       <c r="BF8">
-        <v>0.9421933397662945</v>
+        <v>0.94219333976629449</v>
       </c>
       <c r="BG8">
         <v>0.6445685072212245</v>
       </c>
     </row>
-    <row r="9" spans="1:59">
-      <c r="A9" s="1">
+    <row r="9" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2925332992481665</v>
+        <v>0.29253329924816651</v>
       </c>
       <c r="C9">
-        <v>0.5656133580283894</v>
+        <v>0.56561335802838941</v>
       </c>
       <c r="D9">
-        <v>0.7875548266554726</v>
+        <v>0.78755482665547261</v>
       </c>
       <c r="E9">
-        <v>0.2456902519279019</v>
+        <v>0.24569025192790189</v>
       </c>
       <c r="F9">
-        <v>0.3481471615089493</v>
+        <v>0.34814716150894931</v>
       </c>
       <c r="G9">
-        <v>0.8117216687484898</v>
+        <v>0.81172166874848983</v>
       </c>
       <c r="H9">
-        <v>-0.02567595738274374</v>
+        <v>-2.5675957382743739E-2</v>
       </c>
       <c r="I9">
         <v>0.1237710186967919</v>
       </c>
       <c r="J9">
-        <v>0.3042271729256013</v>
+        <v>0.30422717292560131</v>
       </c>
       <c r="K9">
-        <v>0.08682588686783187</v>
+        <v>8.6825886867831867E-2</v>
       </c>
       <c r="L9">
-        <v>-0.1837941951519493</v>
+        <v>-0.18379419515194931</v>
       </c>
       <c r="M9">
-        <v>0.8524342122964155</v>
+        <v>0.85243421229641547</v>
       </c>
       <c r="N9">
-        <v>0.09206617104697931</v>
+        <v>9.2066171046979312E-2</v>
       </c>
       <c r="O9">
-        <v>0.5997964238244615</v>
+        <v>0.59979642382446152</v>
       </c>
       <c r="P9">
-        <v>0.2843227212447474</v>
+        <v>0.28432272124474739</v>
       </c>
       <c r="Q9">
         <v>0.1044268245512243</v>
@@ -1863,304 +2138,304 @@
         <v>0.2462711280001334</v>
       </c>
       <c r="U9">
-        <v>0.4898243078182353</v>
+        <v>0.48982430781823533</v>
       </c>
       <c r="V9">
-        <v>0.08183822858601401</v>
+        <v>8.1838228586014014E-2</v>
       </c>
       <c r="W9">
-        <v>0.3741600659352347</v>
+        <v>0.37416006593523471</v>
       </c>
       <c r="X9">
-        <v>0.3821582596929021</v>
+        <v>0.38215825969290212</v>
       </c>
       <c r="Y9">
         <v>0.3121906716292826</v>
       </c>
       <c r="Z9">
-        <v>0.5461788479967178</v>
+        <v>0.54617884799671779</v>
       </c>
       <c r="AA9">
-        <v>0.2694085570238143</v>
+        <v>0.26940855702381428</v>
       </c>
       <c r="AB9">
-        <v>0.2236449096621403</v>
+        <v>0.22364490966214029</v>
       </c>
       <c r="AC9">
-        <v>-0.1881638695547753</v>
+        <v>-0.18816386955477529</v>
       </c>
       <c r="AD9">
-        <v>0.8180570920843963</v>
+        <v>0.81805709208439625</v>
       </c>
       <c r="AE9">
-        <v>0.6313980389120858</v>
+        <v>0.63139803891208579</v>
       </c>
       <c r="AF9">
-        <v>0.1394515221321548</v>
+        <v>0.13945152213215481</v>
       </c>
       <c r="AG9">
-        <v>0.3228220490891995</v>
+        <v>0.32282204908919948</v>
       </c>
       <c r="AH9">
-        <v>0.505384346863301</v>
+        <v>0.50538434686330103</v>
       </c>
       <c r="AI9">
-        <v>0.7278049038072413</v>
+        <v>0.72780490380724128</v>
       </c>
       <c r="AJ9">
-        <v>0.1004012463052329</v>
+        <v>0.10040124630523289</v>
       </c>
       <c r="AK9">
-        <v>0.3143345093226804</v>
+        <v>0.31433450932268042</v>
       </c>
       <c r="AL9">
-        <v>0.02293095658706505</v>
+        <v>2.2930956587065052E-2</v>
       </c>
       <c r="AM9">
-        <v>0.6023829151833053</v>
+        <v>0.60238291518330533</v>
       </c>
       <c r="AN9">
-        <v>0.8476701010400357</v>
+        <v>0.84767010104003571</v>
       </c>
       <c r="AO9">
-        <v>0.3141640170795644</v>
+        <v>0.31416401707956437</v>
       </c>
       <c r="AP9">
         <v>0.181314476518525</v>
       </c>
       <c r="AQ9">
-        <v>0.04503185662947661</v>
+        <v>4.5031856629476612E-2</v>
       </c>
       <c r="AR9">
-        <v>0.05965346583641638</v>
+        <v>5.9653465836416383E-2</v>
       </c>
       <c r="AS9">
         <v>0.8303937093739695</v>
       </c>
       <c r="AT9">
-        <v>0.2227033799475275</v>
+        <v>0.22270337994752751</v>
       </c>
       <c r="AU9">
-        <v>0.6195507059163197</v>
+        <v>0.61955070591631967</v>
       </c>
       <c r="AV9">
-        <v>0.7111772582085736</v>
+        <v>0.71117725820857358</v>
       </c>
       <c r="AW9">
-        <v>0.532017678634883</v>
+        <v>0.53201767863488303</v>
       </c>
       <c r="AX9">
         <v>0.4501797736528112</v>
       </c>
       <c r="AY9">
-        <v>0.5566910970566666</v>
+        <v>0.55669109705666664</v>
       </c>
       <c r="AZ9">
-        <v>0.4872830665152051</v>
+        <v>0.48728306651520509</v>
       </c>
       <c r="BA9">
         <v>0.1050992395917104</v>
       </c>
       <c r="BB9">
-        <v>0.2644408175116358</v>
+        <v>0.26444081751163578</v>
       </c>
       <c r="BC9">
-        <v>0.3793774087016288</v>
+        <v>0.37937740870162878</v>
       </c>
       <c r="BD9">
-        <v>0.3503971925664918</v>
+        <v>0.35039719256649182</v>
       </c>
       <c r="BE9">
-        <v>-0.06662600886755979</v>
+        <v>-6.6626008867559788E-2</v>
       </c>
       <c r="BF9">
-        <v>0.5871313037154022</v>
+        <v>0.58713130371540223</v>
       </c>
       <c r="BG9">
-        <v>0.890813191784517</v>
+        <v>0.89081319178451701</v>
       </c>
     </row>
-    <row r="10" spans="1:59">
-      <c r="A10" s="1">
+    <row r="10" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.4185109094591081</v>
+        <v>-0.41851090945910813</v>
       </c>
       <c r="C10">
         <v>0.1959398598825117</v>
       </c>
       <c r="D10">
-        <v>0.3710093850742796</v>
+        <v>0.37100938507427961</v>
       </c>
       <c r="E10">
-        <v>0.2269430679240055</v>
+        <v>0.22694306792400551</v>
       </c>
       <c r="F10">
-        <v>-0.09566398363449496</v>
+        <v>-9.5663983634494965E-2</v>
       </c>
       <c r="G10">
-        <v>0.0811138654365242</v>
+        <v>8.1113865436524199E-2</v>
       </c>
       <c r="H10">
-        <v>-0.08573538335719538</v>
+        <v>-8.5735383357195383E-2</v>
       </c>
       <c r="I10">
-        <v>0.1488316012224402</v>
+        <v>0.14883160122244021</v>
       </c>
       <c r="J10">
         <v>-0.2313819169550855</v>
       </c>
       <c r="K10">
-        <v>0.4682010447767467</v>
+        <v>0.46820104477674668</v>
       </c>
       <c r="L10">
-        <v>-0.03600983954404161</v>
+        <v>-3.6009839544041612E-2</v>
       </c>
       <c r="M10">
-        <v>0.372722220577018</v>
+        <v>0.37272222057701798</v>
       </c>
       <c r="N10">
-        <v>-0.6320526877739638</v>
+        <v>-0.63205268777396384</v>
       </c>
       <c r="O10">
-        <v>0.2094501949301671</v>
+        <v>0.20945019493016709</v>
       </c>
       <c r="P10">
-        <v>-0.2945917571614988</v>
+        <v>-0.29459175716149882</v>
       </c>
       <c r="Q10">
-        <v>0.01461287879268748</v>
+        <v>1.4612878792687479E-2</v>
       </c>
       <c r="R10">
-        <v>0.5361146242728556</v>
+        <v>0.53611462427285561</v>
       </c>
       <c r="S10">
-        <v>-0.216729871366076</v>
+        <v>-0.21672987136607599</v>
       </c>
       <c r="T10">
-        <v>0.0860459890215261</v>
+        <v>8.6045989021526104E-2</v>
       </c>
       <c r="U10">
-        <v>0.0477809603311966</v>
+        <v>4.7780960331196602E-2</v>
       </c>
       <c r="V10">
-        <v>-0.2590426314242694</v>
+        <v>-0.25904263142426942</v>
       </c>
       <c r="W10">
-        <v>-0.1614829596373837</v>
+        <v>-0.16148295963738371</v>
       </c>
       <c r="X10">
-        <v>-0.1258116926038539</v>
+        <v>-0.12581169260385389</v>
       </c>
       <c r="Y10">
-        <v>0.08960483343393565</v>
+        <v>8.9604833433935646E-2</v>
       </c>
       <c r="Z10">
-        <v>0.1506931898704102</v>
+        <v>0.15069318987041019</v>
       </c>
       <c r="AA10">
         <v>0.4042560893545083</v>
       </c>
       <c r="AB10">
-        <v>0.2852587095693511</v>
+        <v>0.28525870956935112</v>
       </c>
       <c r="AC10">
         <v>-1.010166270477066</v>
       </c>
       <c r="AD10">
-        <v>-0.419546333557491</v>
+        <v>-0.41954633355749099</v>
       </c>
       <c r="AE10">
-        <v>-0.05171736470833175</v>
+        <v>-5.1717364708331749E-2</v>
       </c>
       <c r="AF10">
-        <v>-0.1816141719977167</v>
+        <v>-0.18161417199771671</v>
       </c>
       <c r="AG10">
         <v>-0.1085582183653603</v>
       </c>
       <c r="AH10">
-        <v>0.02333419521504409</v>
+        <v>2.3334195215044089E-2</v>
       </c>
       <c r="AI10">
-        <v>0.0299700205569862</v>
+        <v>2.99700205569862E-2</v>
       </c>
       <c r="AJ10">
-        <v>-0.234782421755363</v>
+        <v>-0.23478242175536301</v>
       </c>
       <c r="AK10">
-        <v>0.04693843620493014</v>
+        <v>4.6938436204930142E-2</v>
       </c>
       <c r="AL10">
-        <v>0.3643903575046679</v>
+        <v>0.36439035750466792</v>
       </c>
       <c r="AM10">
-        <v>0.7563261251161202</v>
+        <v>0.75632612511612018</v>
       </c>
       <c r="AN10">
         <v>0.3424064070144951</v>
       </c>
       <c r="AO10">
-        <v>0.4860797135554547</v>
+        <v>0.48607971355545471</v>
       </c>
       <c r="AP10">
-        <v>-0.08277823989374959</v>
+        <v>-8.2778239893749592E-2</v>
       </c>
       <c r="AQ10">
-        <v>-0.7006863388034278</v>
+        <v>-0.70068633880342779</v>
       </c>
       <c r="AR10">
-        <v>0.06837996005709991</v>
+        <v>6.8379960057099912E-2</v>
       </c>
       <c r="AS10">
         <v>1.000459023950885</v>
       </c>
       <c r="AT10">
-        <v>0.1296804413517947</v>
+        <v>0.12968044135179471</v>
       </c>
       <c r="AU10">
-        <v>0.2431847957450778</v>
+        <v>0.24318479574507779</v>
       </c>
       <c r="AV10">
-        <v>0.02347042370867184</v>
+        <v>2.3470423708671841E-2</v>
       </c>
       <c r="AW10">
         <v>0.1208848134154637</v>
       </c>
       <c r="AX10">
-        <v>-0.1635971941607479</v>
+        <v>-0.16359719416074789</v>
       </c>
       <c r="AY10">
-        <v>-0.1685033099840537</v>
+        <v>-0.16850330998405369</v>
       </c>
       <c r="AZ10">
-        <v>-0.4218760698972397</v>
+        <v>-0.42187606989723969</v>
       </c>
       <c r="BA10">
-        <v>0.06073311338852311</v>
+        <v>6.0733113388523108E-2</v>
       </c>
       <c r="BB10">
-        <v>0.4958006331742073</v>
+        <v>0.49580063317420731</v>
       </c>
       <c r="BC10">
-        <v>0.01442660988595845</v>
+        <v>1.4426609885958451E-2</v>
       </c>
       <c r="BD10">
-        <v>0.02316295924079133</v>
+        <v>2.3162959240791332E-2</v>
       </c>
       <c r="BE10">
         <v>0.2445887185731058</v>
       </c>
       <c r="BF10">
-        <v>0.0424788721693603</v>
+        <v>4.2478872169360297E-2</v>
       </c>
       <c r="BG10">
-        <v>0.2930106813011772</v>
+        <v>0.29301068130117719</v>
       </c>
     </row>
-    <row r="11" spans="1:59">
-      <c r="A11" s="1">
+    <row r="11" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B11">
@@ -2173,169 +2448,169 @@
         <v>1.13465592339</v>
       </c>
       <c r="E11">
-        <v>1.058416343034214</v>
+        <v>1.0584163430342139</v>
       </c>
       <c r="F11">
-        <v>0.9986588871275118</v>
+        <v>0.99865888712751183</v>
       </c>
       <c r="G11">
-        <v>0.4105692053161353</v>
+        <v>0.41056920531613528</v>
       </c>
       <c r="H11">
-        <v>0.9347442891648038</v>
+        <v>0.93474428916480379</v>
       </c>
       <c r="I11">
-        <v>0.9181373270755556</v>
+        <v>0.91813732707555562</v>
       </c>
       <c r="J11">
         <v>1.064670875716522</v>
       </c>
       <c r="K11">
-        <v>0.9674300811275828</v>
+        <v>0.96743008112758277</v>
       </c>
       <c r="L11">
-        <v>0.7648499746524212</v>
+        <v>0.76484997465242122</v>
       </c>
       <c r="M11">
         <v>1.071815369853359</v>
       </c>
       <c r="N11">
-        <v>0.8923401511686249</v>
+        <v>0.89234015116862486</v>
       </c>
       <c r="O11">
-        <v>0.9257759115531893</v>
+        <v>0.92577591155318928</v>
       </c>
       <c r="P11">
-        <v>0.6833976631240157</v>
+        <v>0.68339766312401573</v>
       </c>
       <c r="Q11">
-        <v>0.8716659157555472</v>
+        <v>0.87166591575554719</v>
       </c>
       <c r="R11">
-        <v>1.084277285889576</v>
+        <v>1.0842772858895759</v>
       </c>
       <c r="S11">
-        <v>0.9631204791509521</v>
+        <v>0.96312047915095211</v>
       </c>
       <c r="T11">
-        <v>0.9319845210680471</v>
+        <v>0.93198452106804708</v>
       </c>
       <c r="U11">
-        <v>0.7391160264410409</v>
+        <v>0.73911602644104091</v>
       </c>
       <c r="V11">
-        <v>1.005844943524805</v>
+        <v>1.0058449435248049</v>
       </c>
       <c r="W11">
-        <v>0.6060455041625105</v>
+        <v>0.60604550416251046</v>
       </c>
       <c r="X11">
-        <v>0.9891101524364329</v>
+        <v>0.98911015243643285</v>
       </c>
       <c r="Y11">
-        <v>0.8463110405854211</v>
+        <v>0.84631104058542106</v>
       </c>
       <c r="Z11">
         <v>0.8375995488602952</v>
       </c>
       <c r="AA11">
-        <v>1.006251785355243</v>
+        <v>1.0062517853552431</v>
       </c>
       <c r="AB11">
         <v>0.8650930671517566</v>
       </c>
       <c r="AC11">
-        <v>1.000604500888508</v>
+        <v>1.0006045008885081</v>
       </c>
       <c r="AD11">
         <v>1.053694495050401</v>
       </c>
       <c r="AE11">
-        <v>0.9609289126601684</v>
+        <v>0.96092891266016844</v>
       </c>
       <c r="AF11">
-        <v>0.4654558554971582</v>
+        <v>0.46545585549715818</v>
       </c>
       <c r="AG11">
-        <v>0.9325244922557672</v>
+        <v>0.93252449225576717</v>
       </c>
       <c r="AH11">
         <v>0.9469350289171341</v>
       </c>
       <c r="AI11">
-        <v>0.6802618639507764</v>
+        <v>0.68026186395077637</v>
       </c>
       <c r="AJ11">
-        <v>0.9893062082511004</v>
+        <v>0.98930620825110038</v>
       </c>
       <c r="AK11">
-        <v>0.9085414150797746</v>
+        <v>0.90854141507977459</v>
       </c>
       <c r="AL11">
-        <v>0.7453541089137342</v>
+        <v>0.74535410891373421</v>
       </c>
       <c r="AM11">
-        <v>0.8918359118422406</v>
+        <v>0.89183591184224065</v>
       </c>
       <c r="AN11">
-        <v>0.7511773598637784</v>
+        <v>0.75117735986377843</v>
       </c>
       <c r="AO11">
-        <v>0.9674558914895807</v>
+        <v>0.96745589148958067</v>
       </c>
       <c r="AP11">
-        <v>1.029729795553726</v>
+        <v>1.0297297955537259</v>
       </c>
       <c r="AQ11">
         <v>1.028800727831843</v>
       </c>
       <c r="AR11">
-        <v>0.9298483407917065</v>
+        <v>0.92984834079170653</v>
       </c>
       <c r="AS11">
-        <v>0.8692962781162908</v>
+        <v>0.86929627811629084</v>
       </c>
       <c r="AT11">
-        <v>0.9606018661637556</v>
+        <v>0.96060186616375565</v>
       </c>
       <c r="AU11">
-        <v>1.041026874813788</v>
+        <v>1.0410268748137881</v>
       </c>
       <c r="AV11">
-        <v>1.16477641854511</v>
+        <v>1.1647764185451099</v>
       </c>
       <c r="AW11">
-        <v>0.7289085459810957</v>
+        <v>0.72890854598109567</v>
       </c>
       <c r="AX11">
-        <v>0.9446887521824526</v>
+        <v>0.94468875218245263</v>
       </c>
       <c r="AY11">
-        <v>0.8611884709567301</v>
+        <v>0.86118847095673012</v>
       </c>
       <c r="AZ11">
-        <v>0.8092369007428803</v>
+        <v>0.80923690074288035</v>
       </c>
       <c r="BA11">
-        <v>0.9521731699526036</v>
+        <v>0.95217316995260359</v>
       </c>
       <c r="BB11">
         <v>1.103411664553253</v>
       </c>
       <c r="BC11">
-        <v>0.811854400435942</v>
+        <v>0.81185440043594204</v>
       </c>
       <c r="BD11">
-        <v>0.9837918317852322</v>
+        <v>0.98379183178523222</v>
       </c>
       <c r="BE11">
-        <v>0.8648701446533287</v>
+        <v>0.86487014465332868</v>
       </c>
       <c r="BF11">
-        <v>0.8660364467021601</v>
+        <v>0.86603644670216007</v>
       </c>
       <c r="BG11">
-        <v>0.9643651691437619</v>
+        <v>0.96436516914376191</v>
       </c>
     </row>
   </sheetData>
